--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06ccb0c333b4239d/DYB/Lessons/3 - Filler/Angry Birds 2/WIP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{142C2B12-EFA5-42A2-BABE-D8A567326992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F77F813-3D84-0747-A383-702F8FCC9ED8}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{142C2B12-EFA5-42A2-BABE-D8A567326992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E9763B-8332-4531-AD05-C351D525B28B}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="3940" windowWidth="36820" windowHeight="21300" xr2:uid="{2827E5E7-CAE0-4749-A6B6-A240E1385785}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="23310" windowHeight="20985" xr2:uid="{2827E5E7-CAE0-4749-A6B6-A240E1385785}"/>
   </bookViews>
   <sheets>
-    <sheet name="Properties" sheetId="2" r:id="rId1"/>
-    <sheet name="Trivia" sheetId="1" r:id="rId2"/>
+    <sheet name="Trivia" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="371">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1164,12 +1163,6 @@
   </si>
   <si>
     <t>Sloths are surprising good at what physical activity?</t>
-  </si>
-  <si>
-    <t>Version:</t>
-  </si>
-  <si>
-    <t>Trivia:</t>
   </si>
 </sst>
 </file>
@@ -1227,10 +1220,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1268,7 +1265,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1374,7 +1371,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1516,60 +1513,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C66BD1-0498-1644-B873-BBDAFA5D7D87}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B1">
-        <v>20230719</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F046FAD-CBF2-4E8B-BA20-81B24EB8BC16}">
   <dimension ref="A2:F192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="1.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="124.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="124.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1735,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +1755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +1875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +1895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +1935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +1955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +1975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +1995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2049,7 +2015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2089,7 +2055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2095,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2115,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2189,7 +2155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2215,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2329,7 +2295,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2369,7 +2335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2389,7 +2355,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2375,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2395,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2469,7 +2435,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2455,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2475,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2515,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2535,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +2555,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2609,7 +2575,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2649,7 +2615,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2669,7 +2635,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2689,7 +2655,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2709,7 +2675,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2729,7 +2695,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2749,7 +2715,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>112</v>
       </c>
@@ -2760,7 +2726,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2780,7 +2746,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +2766,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2820,7 +2786,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2806,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2860,7 +2826,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2880,7 +2846,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2900,7 +2866,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2920,7 +2886,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2940,7 +2906,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2960,7 +2926,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +2946,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3000,7 +2966,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -3020,7 +2986,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3040,7 +3006,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3060,7 +3026,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -3080,7 +3046,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -3100,7 +3066,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3120,7 +3086,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3106,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3126,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -3180,7 +3146,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3200,7 +3166,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3220,7 +3186,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -3240,7 +3206,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3260,7 +3226,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -3280,7 +3246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3300,7 +3266,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3320,7 +3286,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -3340,7 +3306,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3360,7 +3326,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -3380,7 +3346,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -3400,7 +3366,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -3420,7 +3386,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -3440,7 +3406,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -3460,7 +3426,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3480,7 +3446,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -3500,7 +3466,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3486,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -3540,7 +3506,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3560,7 +3526,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -3580,7 +3546,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -3600,7 +3566,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -3620,7 +3586,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -3640,7 +3606,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -3660,7 +3626,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3680,7 +3646,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -3700,7 +3666,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -3720,7 +3686,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -3740,7 +3706,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3726,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -3780,7 +3746,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -3800,7 +3766,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -3820,7 +3786,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -3840,7 +3806,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -3860,7 +3826,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -3880,7 +3846,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -3900,7 +3866,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -3920,7 +3886,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -3940,7 +3906,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -3960,7 +3926,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +3946,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -4000,7 +3966,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -4020,7 +3986,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -4040,7 +4006,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -4060,7 +4026,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +4046,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -4100,7 +4066,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -4120,7 +4086,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -4140,7 +4106,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -4160,7 +4126,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -4180,7 +4146,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -4200,7 +4166,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -4220,7 +4186,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -4240,7 +4206,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -4260,7 +4226,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -4280,7 +4246,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -4300,7 +4266,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -4320,7 +4286,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -4340,7 +4306,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -4360,7 +4326,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -4380,7 +4346,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -4400,7 +4366,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -4420,7 +4386,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -4440,7 +4406,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -4460,7 +4426,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -4480,7 +4446,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -4500,7 +4466,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -4520,7 +4486,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -4540,7 +4506,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4526,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -4580,7 +4546,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -4600,7 +4566,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -4620,7 +4586,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -4640,7 +4606,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -4660,7 +4626,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -4680,7 +4646,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -4700,7 +4666,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -4720,7 +4686,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -4740,7 +4706,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -4760,7 +4726,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -4780,7 +4746,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -4800,7 +4766,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -4820,7 +4786,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -4840,7 +4806,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -4860,7 +4826,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -4880,7 +4846,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -4900,7 +4866,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4920,7 +4886,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -4940,7 +4906,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -4960,7 +4926,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -4980,7 +4946,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -5000,7 +4966,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -5020,7 +4986,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -5040,7 +5006,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -5060,7 +5026,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -5080,7 +5046,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -5100,7 +5066,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -5120,7 +5086,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -5140,7 +5106,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -5160,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -5180,7 +5146,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -5200,7 +5166,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -5220,7 +5186,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -5240,7 +5206,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -5260,7 +5226,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -5280,7 +5246,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -5300,7 +5266,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -5320,7 +5286,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -5340,7 +5306,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -5360,7 +5326,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
